--- a/ComcastCRMGUIFramework/testData/testScriptData.xlsx
+++ b/ComcastCRMGUIFramework/testData/testScriptData.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumya ranjan\eclipse-workspace\ComcastCRMGUIFramework\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumya ranjan\git\Automation_TL\ComcastCRMGUIFramework\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
     <t>createorgtest</t>
   </si>
   <si>
-    <t>facebook_</t>
+    <t>Nokia_</t>
   </si>
   <si>
     <t>Industries</t>
@@ -178,7 +178,7 @@
     <t>createorgWithPhoneNumber</t>
   </si>
   <si>
-    <t>instagram_</t>
+    <t>snapchat_</t>
   </si>
   <si>
     <t>8658002275</t>
@@ -906,8 +906,8 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1230,7 +1230,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
